--- a/apps_transform.xlsx
+++ b/apps_transform.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/Projects/AV Outlook US/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC03FB7-A51C-8F44-A3B2-308B98C6C991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AB7655-7709-7F4A-8526-6FB939DE846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="14280" xr2:uid="{A6815BE1-B3FB-A24B-A68B-D3D485C2DB95}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="37580" windowHeight="21100" activeTab="1" xr2:uid="{A6815BE1-B3FB-A24B-A68B-D3D485C2DB95}"/>
   </bookViews>
   <sheets>
     <sheet name="apps" sheetId="1" r:id="rId1"/>
+    <sheet name="implications" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Applications</t>
   </si>
@@ -112,9 +113,6 @@
     <t>Powertrain downsizing (+)</t>
   </si>
   <si>
-    <t>Promote electrification (+)</t>
-  </si>
-  <si>
     <t>Vehicle light weighting (+)</t>
   </si>
   <si>
@@ -145,9 +143,6 @@
     <t>urban spawl (-)</t>
   </si>
   <si>
-    <t>Integration with power systems (+)</t>
-  </si>
-  <si>
     <t>More congestion given induced demand (-)</t>
   </si>
   <si>
@@ -160,7 +155,70 @@
     <t>VMT</t>
   </si>
   <si>
-    <t>Fuel Efficiency</t>
+    <t>Promote electrification (+/-)</t>
+  </si>
+  <si>
+    <t>Alternative Fuel Choice</t>
+  </si>
+  <si>
+    <t>Integration with power systems (V2G) (+)</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Decongestion</t>
+  </si>
+  <si>
+    <t>Powertrain downsizing</t>
+  </si>
+  <si>
+    <t>Eco-driving-related transformations</t>
+  </si>
+  <si>
+    <t>Fewer crashes</t>
+  </si>
+  <si>
+    <t>Vehicle right-sizing</t>
+  </si>
+  <si>
+    <t>Higher speeds</t>
+  </si>
+  <si>
+    <t>ICT-enabled energy consumption</t>
+  </si>
+  <si>
+    <t>Travel cost reduction (induced demand)</t>
+  </si>
+  <si>
+    <t>New users</t>
+  </si>
+  <si>
+    <t>Mobility services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco-driving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficient routing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New users </t>
+  </si>
+  <si>
+    <t>High speeds</t>
+  </si>
+  <si>
+    <t>Induced demand</t>
+  </si>
+  <si>
+    <t>Vehicle/powertrain right-sizing</t>
+  </si>
+  <si>
+    <t>Smart parking</t>
+  </si>
+  <si>
+    <t>Automated carpooling</t>
   </si>
 </sst>
 </file>
@@ -196,8 +254,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,6 +272,3082 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>% Change</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Energy Consumption due to Vehicle Automation </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>implications!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F6D-2548-93CB-BC31209D3F97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:schemeClr val="bg1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>implications!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F6D-2548-93CB-BC31209D3F97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>implications!$C$1:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F6D-2548-93CB-BC31209D3F97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="651256336"/>
+        <c:axId val="635057952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="651256336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="635057952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="635057952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651256336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:bevel/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>% Change of Energy Consumption due to Vehicle Automation </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.1166146131174943E-2"/>
+          <c:y val="0.11924449958224677"/>
+          <c:w val="0.94562508247921528"/>
+          <c:h val="0.8061895840190394"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>implications!$A$32:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Platooning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eco-driving </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Efficient routing </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New users </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High speeds</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Induced demand</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vehicle/powertrain right-sizing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Smart parking</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Automated carpooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>implications!$B$32:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3166-AE49-A9E2-F449D47192B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="485828064"/>
+        <c:axId val="485829712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="485828064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485829712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485829712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485828064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> % Change of Energy Consumption due to Vehicle Automation </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0088-5C46-A9E8-360F4FA5622B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0088-5C46-A9E8-360F4FA5622B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0088-5C46-A9E8-360F4FA5622B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0088-5C46-A9E8-360F4FA5622B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0088-5C46-A9E8-360F4FA5622B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0088-5C46-A9E8-360F4FA5622B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-0088-5C46-A9E8-360F4FA5622B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-0088-5C46-A9E8-360F4FA5622B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-0088-5C46-A9E8-360F4FA5622B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>implications!$A$58:$I$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Platooning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eco-driving </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Efficient routing </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New users </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High speeds</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Induced demand</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vehicle/powertrain right-sizing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Smart parking</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Automated carpooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>implications!$A$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C4A-2946-853F-67E2C3E7EA29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71447307971059004"/>
+          <c:y val="0.26255883879899633"/>
+          <c:w val="0.2652827152456177"/>
+          <c:h val="0.50683114129964524"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="256">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="10000"/>
+            <a:lumOff val="90000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="50800">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4C80A6-7518-EB82-62FE-C60623F4723F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D60C89-C882-65CE-B972-DDA62704170C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C04D6E-2DA5-BC48-4773-D7D82365DE60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,12 +3647,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DB5F42-862A-7C40-9980-CB2942964385}">
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,9 +3660,10 @@
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="21" max="21" width="37.83203125" customWidth="1"/>
+    <col min="28" max="28" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +3692,7 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
         <v>22</v>
@@ -568,52 +3704,55 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>37</v>
-      </c>
       <c r="AA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -633,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -643,9 +3782,6 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3">
         <v>1</v>
       </c>
@@ -662,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -682,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -702,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -716,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -739,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -756,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -794,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -817,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -858,9 +3994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -877,8 +4013,11 @@
       <c r="Q12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -892,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -909,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -946,6 +4085,9 @@
       <c r="M15">
         <v>1</v>
       </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
       <c r="O15">
         <v>1</v>
       </c>
@@ -958,6 +4100,9 @@
       <c r="R15">
         <v>1</v>
       </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
       <c r="V15">
         <v>1</v>
       </c>
@@ -974,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -982,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -990,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -998,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1006,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1017,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1025,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1035,8 +4180,11 @@
       <c r="AB22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1044,15 +4192,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1060,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1068,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1076,114 +4224,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="AB28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="AB29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="AB30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="AB31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="AB32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="AB32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="AA33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="AA33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="AA34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="AA34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="AA35">
-        <v>1</v>
-      </c>
-      <c r="AB35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="AA36">
-        <v>1</v>
-      </c>
-      <c r="AB36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="AA37">
-        <v>1</v>
-      </c>
-      <c r="AB37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="AA38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>35</v>
-      </c>
-      <c r="AA38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>37</v>
       </c>
       <c r="AB40">
         <v>1</v>
@@ -1192,4 +4340,271 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0965613D-57A8-9B4C-928E-21B5C34C3A50}">
+  <dimension ref="A1:I59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="V76" sqref="V76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-0.21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-0.15</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>-0.04</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>